--- a/src/main/resources/apitest5.xlsx
+++ b/src/main/resources/apitest5.xlsx
@@ -88,7 +88,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>否</t>
+    <t>是</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>

--- a/src/main/resources/apitest5.xlsx
+++ b/src/main/resources/apitest5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8115"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8115" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>是否开启</t>
   </si>
@@ -90,6 +90,18 @@
   <si>
     <t>是</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginname</t>
+  </si>
+  <si>
+    <t>loginpass</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>test1</t>
   </si>
 </sst>
 </file>
@@ -466,7 +478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -594,14 +606,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
